--- a/设定.xlsx
+++ b/设定.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="更新" sheetId="4" r:id="rId1"/>
-    <sheet name="规则" sheetId="1" r:id="rId2"/>
-    <sheet name="世界观" sheetId="2" r:id="rId3"/>
+    <sheet name="世界观" sheetId="2" r:id="rId2"/>
+    <sheet name="规则" sheetId="1" r:id="rId3"/>
     <sheet name="表格" sheetId="5" r:id="rId4"/>
     <sheet name="参考" sheetId="3" r:id="rId5"/>
   </sheets>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="241">
   <si>
     <t>格子单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,10 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>洞穴伸出的蜘蛛，黑色，血盆大口，0.5*0.5格子大小，移动速度快，喜欢结网，网为1*1格大小，吃玩家掉落的所有物品。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>普通挥镐，开采的最基本技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -394,10 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>事件随机堆放规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>故事背景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -477,10 +469,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开采浅层矿物的必须工具，没有耐久</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -517,19 +505,477 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在采矿过程中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>火药桶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1*1单元格大小，当采掉地面的矿物后会喷火出来，会照亮周围两格范围的，定时间喷发出火焰，没有火焰时这格可以行走，有火焰走上去，按毫秒掉血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1*1单元格大小，在这个单元格上存放炸药桶，攻击或者靠近它的附近1.5单元格以内2秒后爆炸，要做动画示警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗资源组建的传送门可以传回地面，传送门功能为唯一，传送地点会被覆盖，只有最新的起作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5个格子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹤嘴锄1.5个格子范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞穴生出的蜘蛛，黑色，血盆大口，0.5*0.5格子大小，移动速度快，喜欢结网，网为1*1格大小，吃玩家掉落的所有物品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家需要光亮在矿洞中挖掘，开采各种矿物、躲避灾害、机关、怪物，并且使用道具，跳跃通过关卡考验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思路：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、地图最大范围为100*250格子为一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、小面积单位地图9格-49格大小随机，总面积不超过100*100，剩下面积为连接面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、小面积单位地图至少要有一面与其他面积地图由吊桥或者废弃矿坑道轨连接；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   //最多四面连接，连接单位不限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   //废弃道轨和悬石连接处必然为空格，无地面单位阻挡方便玩家通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   //玩家到达连接处会有两个火把自动点燃，永久照亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  //形成大面积或者小面地面后，他们周围空缺距离最大5格，最小1格；超过一格右悬石、吊桥、轨道链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面物件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花岗岩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身材质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可破坏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*3-1*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萤光岩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础地面，承载地面物件，生成地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现在小面积地图，承载矿石，开采矿时候会破碎跌落至深渊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5*0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叠加数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大理石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁轨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙和石子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬黏土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜矿伴生岩石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁矿伴生岩石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半岩石办金子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承载地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬岩面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*1单元格大小，当采掉地面的矿物后普通岩石地面会破开一个缺口会喷火出来，会照亮周围两格范围的，定时间喷发出火焰，没有火焰时这格可以行走，有火焰走上去，按毫秒掉血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬岩面\任何矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬岩面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬岩面\易碎区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破坏方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采矿后破碎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开采\炸药\瓦斯爆炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸药</t>
+  </si>
+  <si>
+    <t>踩踏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开采\走近\瓦斯爆炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开采</t>
+  </si>
+  <si>
+    <t>攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿物\地面物件\地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黏土格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在基础地面上，被采集矿物后会喷火，喷火时长3秒，玩家走到这格上会被烧伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻挡物件，不可开采，形成的时候会有连续生成或单个生成，不阻挡进出口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开采物件，主要起到阻挡作用，没有伴生矿，生成不阻挡进出口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻挡、出矿，伴生铜矿，生成不阻挡进出口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻挡、出矿，伴生铁矿，生成不阻挡进出口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻挡、出矿，伴生铜矿、硝石、铁矿、金块，生成不阻挡进出口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面材质，不可行走，只能跳跃或者绕行，根据所在地图面积生成连续数量，生成连续数1-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜡像僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜡像僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被黏黏虫蜡化的冒险者，寻找活人攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叠加数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜡质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破碎状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷火\熄灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行走动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静止\跌落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整\裂纹\破碎消失\矿物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整\裂纹\破碎消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整\缩小\破碎消失\矿物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品掉落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品叠加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落在地面，需要走上去拾取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每格4个叠加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大中小三种背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空缺\冒烟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整\碎落\消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整\出刺\收刺\裂纹\破碎消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整沙面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整\炸碎跌落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚掩\破碎跌落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排放\消失\出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出定时出地刺，可破坏或绕行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家掉进去之后需要跳跃出来，不跳出来会不断下陷直至消失死亡，玩家掉进去需要4次才能完全消失，所以玩家跳一次才能拔高一个阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢炸药能炸毁，如果在玩家脚下爆炸会跌落，吊桥不会重生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走上去停留半秒就会跌落，所以玩家需要快速移动以免掉落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是踩上去0.5秒后会消失，消失0.7秒出现，玩家可以通过后返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开采\爆炸\跌落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +983,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,8 +1013,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,6 +1045,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,7 +1236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -798,6 +1265,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1115,894 +1595,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Z71"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="V2" s="16"/>
-    </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="C7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="C10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="C11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="C12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="C13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="C14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="C15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="C16" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C20" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C21" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="C33" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="C34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-    </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="C37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-    </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="C38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="17"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="17"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="17"/>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="C42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="C43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="17"/>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="C44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="17"/>
-      <c r="U44" s="17"/>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="17"/>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="17"/>
-      <c r="U46" s="17"/>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="C47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="17"/>
-      <c r="S47" s="17"/>
-      <c r="T47" s="17"/>
-      <c r="U47" s="17"/>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="C48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="17"/>
-      <c r="U48" s="17"/>
-    </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="C49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="17"/>
-      <c r="S49" s="17"/>
-      <c r="T49" s="17"/>
-      <c r="U49" s="17"/>
-    </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
-      <c r="T50" s="17"/>
-      <c r="U50" s="17"/>
-    </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B51" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="17"/>
-    </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="C52" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="17"/>
-      <c r="U52" s="17"/>
-    </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="C53" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="17"/>
-    </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="C54" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="17"/>
-      <c r="T54" s="17"/>
-      <c r="U54" s="17"/>
-    </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="C55" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="17"/>
-      <c r="T55" s="17"/>
-      <c r="U55" s="17"/>
-    </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="C56" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="17"/>
-      <c r="S56" s="17"/>
-      <c r="T56" s="17"/>
-      <c r="U56" s="17"/>
-    </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
-      <c r="R57" s="17"/>
-      <c r="S57" s="17"/>
-      <c r="T57" s="17"/>
-      <c r="U57" s="17"/>
-    </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B58" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="17"/>
-      <c r="T58" s="17"/>
-      <c r="U58" s="17"/>
-    </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B59" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
-      <c r="R59" s="17"/>
-      <c r="S59" s="17"/>
-      <c r="T59" s="17"/>
-      <c r="U59" s="17"/>
-    </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B60" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
-      <c r="R60" s="17"/>
-      <c r="S60" s="17"/>
-      <c r="T60" s="17"/>
-      <c r="U60" s="17"/>
-    </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B61" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
-      <c r="R61" s="17"/>
-      <c r="S61" s="17"/>
-      <c r="T61" s="17"/>
-      <c r="U61" s="17"/>
-    </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
-      <c r="R62" s="17"/>
-      <c r="S62" s="17"/>
-      <c r="T62" s="17"/>
-      <c r="U62" s="17"/>
-    </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
-      <c r="R63" s="17"/>
-      <c r="S63" s="17"/>
-      <c r="T63" s="17"/>
-      <c r="U63" s="17"/>
-    </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
-      <c r="R64" s="17"/>
-      <c r="S64" s="17"/>
-      <c r="T64" s="17"/>
-      <c r="U64" s="17"/>
-    </row>
-    <row r="65" spans="10:21" x14ac:dyDescent="0.15">
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
-      <c r="R65" s="17"/>
-      <c r="S65" s="17"/>
-      <c r="T65" s="17"/>
-      <c r="U65" s="17"/>
-    </row>
-    <row r="66" spans="10:21" x14ac:dyDescent="0.15">
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
-      <c r="R66" s="17"/>
-      <c r="S66" s="17"/>
-      <c r="T66" s="17"/>
-      <c r="U66" s="17"/>
-    </row>
-    <row r="67" spans="10:21" x14ac:dyDescent="0.15">
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
-      <c r="R67" s="17"/>
-      <c r="S67" s="17"/>
-      <c r="T67" s="17"/>
-      <c r="U67" s="17"/>
-    </row>
-    <row r="68" spans="10:21" x14ac:dyDescent="0.15">
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
-      <c r="R68" s="17"/>
-      <c r="S68" s="17"/>
-      <c r="T68" s="17"/>
-      <c r="U68" s="17"/>
-    </row>
-    <row r="69" spans="10:21" x14ac:dyDescent="0.15">
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
-      <c r="R69" s="17"/>
-      <c r="S69" s="17"/>
-      <c r="T69" s="17"/>
-      <c r="U69" s="17"/>
-    </row>
-    <row r="70" spans="10:21" x14ac:dyDescent="0.15">
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
-      <c r="R70" s="17"/>
-      <c r="S70" s="17"/>
-      <c r="T70" s="17"/>
-      <c r="U70" s="17"/>
-    </row>
-    <row r="71" spans="10:21" x14ac:dyDescent="0.15">
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
-      <c r="R71" s="17"/>
-      <c r="S71" s="17"/>
-      <c r="T71" s="17"/>
-      <c r="U71" s="17"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2014,10 +1610,10 @@
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B3" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2036,10 +1632,10 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B4" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -2058,10 +1654,10 @@
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B5" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -2412,6 +2008,1838 @@
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="B13:B19"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AB117"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K106" sqref="K106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="14" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="X2" s="16"/>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C32" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="C33" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="C40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="C41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="C42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="C45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="17"/>
+      <c r="V45" s="17"/>
+      <c r="W45" s="17"/>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="C46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="17"/>
+      <c r="W49" s="17"/>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="17"/>
+      <c r="V50" s="17"/>
+      <c r="W50" s="17"/>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="17"/>
+      <c r="V51" s="17"/>
+      <c r="W51" s="17"/>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="17"/>
+      <c r="S52" s="17"/>
+      <c r="T52" s="17"/>
+      <c r="U52" s="17"/>
+      <c r="V52" s="17"/>
+      <c r="W52" s="17"/>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C53" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="17"/>
+      <c r="V53" s="17"/>
+      <c r="W53" s="17"/>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="17"/>
+      <c r="V54" s="17"/>
+      <c r="W54" s="17"/>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="17"/>
+      <c r="V55" s="17"/>
+      <c r="W55" s="17"/>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="17"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="17"/>
+      <c r="V56" s="17"/>
+      <c r="W56" s="17"/>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="17"/>
+      <c r="V57" s="17"/>
+      <c r="W57" s="17"/>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="17"/>
+      <c r="V58" s="17"/>
+      <c r="W58" s="17"/>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="17"/>
+      <c r="U59" s="17"/>
+      <c r="V59" s="17"/>
+      <c r="W59" s="17"/>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="17"/>
+      <c r="U60" s="17"/>
+      <c r="V60" s="17"/>
+      <c r="W60" s="17"/>
+      <c r="X60" s="10"/>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C61" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="17"/>
+      <c r="U61" s="17"/>
+      <c r="V61" s="17"/>
+      <c r="W61" s="17"/>
+      <c r="X61" s="10"/>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C62" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="17"/>
+      <c r="U62" s="17"/>
+      <c r="V62" s="17"/>
+      <c r="W62" s="17"/>
+      <c r="X62" s="10"/>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C63" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="17"/>
+      <c r="U63" s="17"/>
+      <c r="V63" s="17"/>
+      <c r="W63" s="17"/>
+      <c r="X63" s="10"/>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C64" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
+      <c r="R64" s="17"/>
+      <c r="S64" s="17"/>
+      <c r="T64" s="17"/>
+      <c r="U64" s="17"/>
+      <c r="V64" s="17"/>
+      <c r="W64" s="17"/>
+      <c r="X64" s="10"/>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C65" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
+      <c r="R65" s="17"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="17"/>
+      <c r="U65" s="17"/>
+      <c r="V65" s="17"/>
+      <c r="W65" s="17"/>
+      <c r="X65" s="10"/>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="17"/>
+      <c r="T66" s="17"/>
+      <c r="U66" s="17"/>
+      <c r="V66" s="17"/>
+      <c r="W66" s="17"/>
+      <c r="X66" s="10"/>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B67" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="17"/>
+      <c r="U67" s="17"/>
+      <c r="V67" s="17"/>
+      <c r="W67" s="17"/>
+      <c r="X67" s="10"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
+      <c r="R68" s="17"/>
+      <c r="S68" s="17"/>
+      <c r="T68" s="17"/>
+      <c r="U68" s="17"/>
+      <c r="V68" s="17"/>
+      <c r="W68" s="17"/>
+      <c r="X68" s="10"/>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B69" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="17"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="17"/>
+      <c r="U69" s="17"/>
+      <c r="V69" s="17"/>
+      <c r="W69" s="17"/>
+      <c r="X69" s="10"/>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C70" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
+      <c r="R70" s="17"/>
+      <c r="S70" s="17"/>
+      <c r="T70" s="17"/>
+      <c r="U70" s="17"/>
+      <c r="V70" s="17"/>
+      <c r="W70" s="17"/>
+      <c r="X70" s="10"/>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C71" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
+      <c r="R71" s="17"/>
+      <c r="S71" s="17"/>
+      <c r="T71" s="17"/>
+      <c r="U71" s="17"/>
+      <c r="V71" s="17"/>
+      <c r="W71" s="17"/>
+      <c r="X71" s="10"/>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C72" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
+      <c r="R72" s="17"/>
+      <c r="S72" s="17"/>
+      <c r="T72" s="17"/>
+      <c r="U72" s="17"/>
+      <c r="V72" s="17"/>
+      <c r="W72" s="17"/>
+      <c r="X72" s="10"/>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C73" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
+      <c r="R73" s="17"/>
+      <c r="S73" s="17"/>
+      <c r="T73" s="17"/>
+      <c r="U73" s="17"/>
+      <c r="V73" s="17"/>
+      <c r="W73" s="17"/>
+      <c r="X73" s="10"/>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C74" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="17"/>
+      <c r="T74" s="17"/>
+      <c r="U74" s="17"/>
+      <c r="V74" s="17"/>
+      <c r="W74" s="17"/>
+      <c r="X74" s="10"/>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C75" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
+      <c r="R75" s="17"/>
+      <c r="S75" s="17"/>
+      <c r="T75" s="17"/>
+      <c r="U75" s="17"/>
+      <c r="V75" s="17"/>
+      <c r="W75" s="17"/>
+      <c r="X75" s="10"/>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C76" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
+      <c r="R76" s="17"/>
+      <c r="S76" s="17"/>
+      <c r="T76" s="17"/>
+      <c r="U76" s="17"/>
+      <c r="V76" s="17"/>
+      <c r="W76" s="17"/>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
+      <c r="R77" s="17"/>
+      <c r="S77" s="17"/>
+      <c r="T77" s="17"/>
+      <c r="U77" s="17"/>
+      <c r="V77" s="17"/>
+      <c r="W77" s="17"/>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
+      <c r="R78" s="17"/>
+      <c r="S78" s="17"/>
+      <c r="T78" s="17"/>
+      <c r="U78" s="17"/>
+      <c r="V78" s="17"/>
+      <c r="W78" s="17"/>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
+      <c r="R79" s="17"/>
+      <c r="S79" s="17"/>
+      <c r="T79" s="17"/>
+      <c r="U79" s="17"/>
+      <c r="V79" s="17"/>
+      <c r="W79" s="17"/>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="17"/>
+      <c r="T80" s="17"/>
+      <c r="U80" s="17"/>
+      <c r="V80" s="17"/>
+      <c r="W80" s="17"/>
+    </row>
+    <row r="81" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E81" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F81" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G81" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="H81" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="I81" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J81" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="K81" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="L81" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C82" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E82" s="23">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I82" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L82" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="M82" s="23"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C83" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D83" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E83" s="23">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L83" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="M83" s="23"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C84" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E84" s="23">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I84" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L84" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="M84" s="23"/>
+      <c r="N84" s="23"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C85" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E85" s="23">
+        <v>1</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G85" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="H85" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I85" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L85" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="M85" s="23"/>
+      <c r="N85" s="23"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C86" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E86" s="23">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G86" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="H86" s="23">
+        <v>120</v>
+      </c>
+      <c r="I86" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L86" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M86" s="23"/>
+      <c r="N86" s="23"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C87" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D87" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E87" s="23">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G87" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="H87" s="23">
+        <v>200</v>
+      </c>
+      <c r="I87" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L87" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M87" s="23"/>
+      <c r="N87" s="23"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C88" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E88" s="23">
+        <v>1</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G88" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="H88" s="23">
+        <v>150</v>
+      </c>
+      <c r="I88" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L88" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="M88" s="23"/>
+      <c r="N88" s="23"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C89" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E89" s="23">
+        <v>1</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G89" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="H89" s="23">
+        <v>200</v>
+      </c>
+      <c r="I89" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L89" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="M89" s="23"/>
+      <c r="N89" s="23"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C90" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D90" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E90" s="23">
+        <v>1</v>
+      </c>
+      <c r="F90" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G90" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="H90" s="23">
+        <v>240</v>
+      </c>
+      <c r="I90" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L90" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="M90" s="23"/>
+      <c r="N90" s="23"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C91" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E91" s="23">
+        <v>1</v>
+      </c>
+      <c r="F91" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G91" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="H91" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I91" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L91" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="M91" s="23"/>
+      <c r="N91" s="23"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C92" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E92" s="23">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G92" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="H92" s="23">
+        <v>120</v>
+      </c>
+      <c r="I92" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K92" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="L92" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="M92" s="23"/>
+      <c r="N92" s="23"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C93" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D93" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E93" s="23">
+        <v>1</v>
+      </c>
+      <c r="F93" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G93" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="H93" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I93" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K93" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="L93" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="M93" s="23"/>
+      <c r="N93" s="23"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C94" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D94" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E94" s="23">
+        <v>1</v>
+      </c>
+      <c r="F94" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G94" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="H94" s="23">
+        <v>60</v>
+      </c>
+      <c r="I94" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K94" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="L94" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="M94" s="23"/>
+      <c r="N94" s="23"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C95" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D95" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E95" s="23">
+        <v>1</v>
+      </c>
+      <c r="F95" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G95" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="H95" s="23">
+        <v>0</v>
+      </c>
+      <c r="I95" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K95" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="L95" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="M95" s="23"/>
+      <c r="N95" s="23"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C96" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D96" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E96" s="23">
+        <v>1</v>
+      </c>
+      <c r="F96" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G96" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="H96" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="I96" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K96" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="L96" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="M96" s="23"/>
+      <c r="N96" s="23"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="J97" s="23"/>
+      <c r="K97" s="23"/>
+      <c r="L97" s="23"/>
+      <c r="M97" s="23"/>
+      <c r="N97" s="23"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="J98" s="23"/>
+      <c r="K98" s="23"/>
+      <c r="L98" s="23"/>
+      <c r="M98" s="23"/>
+      <c r="N98" s="23"/>
+    </row>
+    <row r="104" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D104" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E104" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="G104" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="H104" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="I104" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="J104" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="K104" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="L104" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="M104" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="N104" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="O104" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="P104" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q104" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C105" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D105" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G105" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="H105" s="23">
+        <v>240</v>
+      </c>
+      <c r="I105" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E106" s="23">
+        <v>1</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G106" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="H106" s="23">
+        <v>240</v>
+      </c>
+      <c r="I106" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E107" s="23">
+        <v>1</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H107" s="23">
+        <v>100</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E108" s="23">
+        <v>1</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H108" s="23">
+        <v>150</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J108" s="1">
+        <v>0</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C109" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E109" s="23">
+        <v>1</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H109" s="23">
+        <v>200</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C110" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E110" s="23">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H110" s="23">
+        <v>180</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A116" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A117" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
